--- a/Auswertung.xlsx
+++ b/Auswertung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Studium\6.Semester\KI\geneticAlgorithmKI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0F3123-2348-4247-8202-34E8CE71B3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD99B20-EA58-4DF4-BC71-6B271011D613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6CEC15FD-3C43-4B9F-9C8F-8E3C6C81C947}"/>
   </bookViews>
@@ -743,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE187D8-1039-418B-963B-5CFE9E22975B}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2017,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDF2DB1-E2D6-4B69-82FC-6928E094AD9E}">
   <dimension ref="A1:AH29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2113,7 +2113,7 @@
         <f>B10/B9</f>
         <v>0.52520352403256387</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <f>B10/D9</f>
         <v>0.60556769962710555</v>
       </c>
